--- a/RM/excel1.xlsx
+++ b/RM/excel1.xlsx
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E425" sqref="E425"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2673,7 +2673,7 @@
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -12446,9 +12446,7 @@
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
-      <c r="D411" s="2">
-        <v>1</v>
-      </c>
+      <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2" t="s">
@@ -12468,9 +12466,7 @@
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
-      <c r="D412" s="2">
-        <v>2</v>
-      </c>
+      <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2" t="s">
@@ -12510,9 +12506,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
-      <c r="D414" s="2">
-        <v>3</v>
-      </c>
+      <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2" t="s">
@@ -12532,9 +12526,7 @@
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
-      <c r="D415" s="2">
-        <v>4</v>
-      </c>
+      <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2" t="s">
